--- a/стратегия тестирования/Стратегия_тестирования.xlsx
+++ b/стратегия тестирования/Стратегия_тестирования.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12300" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Тест-кейс 4" sheetId="7" r:id="rId10"/>
     <sheet name="Дефект 5" sheetId="12" r:id="rId11"/>
     <sheet name="Тест-кейс 5" sheetId="8" r:id="rId12"/>
+    <sheet name="Отчет" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="243">
   <si>
     <t xml:space="preserve">Тест-план по системному тестированию ExamSem								</t>
   </si>
@@ -726,6 +727,78 @@
   </si>
   <si>
     <t>Данные корректны</t>
+  </si>
+  <si>
+    <t>Отчет о системном тестировании SmartHome</t>
+  </si>
+  <si>
+    <t>Версия: 1.5.3</t>
+  </si>
+  <si>
+    <t>Сроки проведения тестирования: 30.05.2025</t>
+  </si>
+  <si>
+    <t>Участники процесса</t>
+  </si>
+  <si>
+    <t>Роль</t>
+  </si>
+  <si>
+    <t>Исполнитель</t>
+  </si>
+  <si>
+    <t>Невретдинов Илья, Остапенко Святослав, Ланский Павел, Ануфриев Платон</t>
+  </si>
+  <si>
+    <t>Показатель</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Доля (%)</t>
+  </si>
+  <si>
+    <t>Запланировано тест-кейсов</t>
+  </si>
+  <si>
+    <t>Выполнено тест-кейсов</t>
+  </si>
+  <si>
+    <t>Успешно выполнено</t>
+  </si>
+  <si>
+    <t>Неуспешно выполнено</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Примеры дефектов</t>
+  </si>
+  <si>
+    <t>1. Дублирование push-уведомлений</t>
+  </si>
+  <si>
+    <t>2. Чайник не выключается при достижении температуры</t>
+  </si>
+  <si>
+    <t>1. Неточность поддержки температуры в режиме "Авто" (±3-4°C вместо ±1°C)</t>
+  </si>
+  <si>
+    <t>1. Сценарий "Вечерний" не изменяет яркость света</t>
+  </si>
+  <si>
+    <t>1. Скачок громкости при переключении треков (исправлено в v1.5.4)</t>
+  </si>
+  <si>
+    <t>Заключение</t>
+  </si>
+  <si>
+    <t>Наличия 2 критических дефектов (дублирование уведомлений, некорректное отключение чайника).</t>
+  </si>
+  <si>
+    <t>Несоответствия метрикам качества (требовалось исправить все дефекты с приоритетом Critical).</t>
   </si>
 </sst>
 </file>
@@ -741,9 +814,44 @@
     <numFmt numFmtId="181" formatCode="dd\.mmm"/>
     <numFmt numFmtId="182" formatCode="0.0;[Red]0.0"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="46">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="204"/>
@@ -828,14 +936,6 @@
     <font>
       <b/>
       <sz val="26"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="204"/>
@@ -1041,12 +1141,66 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1265,12 +1419,315 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="84">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2036,165 +2493,165 @@
   </borders>
   <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="55" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="76" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="80" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="79" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="81" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="83" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2203,270 +2660,373 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="64" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="64" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="66" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="67" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="68" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="69" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="41" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="20" xfId="77" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="0" borderId="41" xfId="77" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="69" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="68" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="71" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="72" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="73" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="78" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="44" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="65" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="21" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="25" fillId="12" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2558,6 +3118,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2850,219 +3417,219 @@
   </cols>
   <sheetData>
     <row r="3" ht="26.45" customHeight="1" spans="3:9">
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
     </row>
     <row r="4" ht="15.6" customHeight="1" spans="3:9">
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
     </row>
     <row r="5" ht="14.45" customHeight="1" spans="3:3">
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="132" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" ht="14.45" customHeight="1" spans="3:12">
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
     </row>
     <row r="7" ht="14.45" customHeight="1" spans="3:3">
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="132" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" ht="14.45" customHeight="1" spans="3:9">
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
     </row>
     <row r="9" ht="14.45" customHeight="1" spans="3:9">
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
     </row>
     <row r="10" ht="64.25" customHeight="1" spans="3:9">
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="98" t="s">
+      <c r="D10" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="98" t="s">
+      <c r="F10" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="98" t="s">
+      <c r="G10" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="98" t="s">
+      <c r="H10" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="104" t="s">
+      <c r="I10" s="143" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" ht="77" customHeight="1" spans="3:9">
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="99">
+      <c r="D11" s="138">
         <v>1</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="99" t="s">
+      <c r="F11" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="99" t="s">
+      <c r="G11" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="100" t="s">
+      <c r="H11" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="100" t="s">
+      <c r="I11" s="139" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="77" customHeight="1" spans="3:9">
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="99">
+      <c r="D12" s="138">
         <v>1</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="99" t="s">
+      <c r="F12" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="99" t="s">
+      <c r="G12" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="100" t="s">
+      <c r="H12" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="100" t="s">
+      <c r="I12" s="139" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" ht="64.25" customHeight="1" spans="3:9">
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="99">
+      <c r="D13" s="138">
         <v>2</v>
       </c>
-      <c r="E13" s="99" t="s">
+      <c r="E13" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="99" t="s">
+      <c r="F13" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="99" t="s">
+      <c r="G13" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="100" t="s">
+      <c r="H13" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="100" t="s">
+      <c r="I13" s="139" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" ht="64.25" customHeight="1" spans="3:9">
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="99">
+      <c r="D14" s="138">
         <v>1</v>
       </c>
-      <c r="E14" s="99" t="s">
+      <c r="E14" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="99" t="s">
+      <c r="F14" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="99" t="s">
+      <c r="G14" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="100" t="s">
+      <c r="H14" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="100" t="s">
+      <c r="I14" s="139" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" ht="118" customHeight="1" spans="3:9">
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="99">
+      <c r="D15" s="138">
         <v>1</v>
       </c>
-      <c r="E15" s="99" t="s">
+      <c r="E15" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="99" t="s">
+      <c r="F15" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="99" t="s">
+      <c r="G15" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="100" t="s">
+      <c r="H15" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="100" t="s">
+      <c r="I15" s="139" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" ht="41" customHeight="1" spans="3:9">
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="103">
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="142">
         <v>3.5</v>
       </c>
-      <c r="G16" s="102"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3096,317 +3663,317 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:8">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="45">
         <v>4</v>
       </c>
-      <c r="H1" s="7"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" ht="15.75" spans="1:8">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" ht="15.75" spans="1:8">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="61">
         <v>0</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="81" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="28">
+      <c r="E4" s="66"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="67">
         <v>45807</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" ht="15" spans="1:8">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" ht="16.5" spans="1:8">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
     </row>
     <row r="7" ht="15.75" spans="1:8">
-      <c r="A7" s="16"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
     </row>
     <row r="8" ht="16.5" spans="1:8">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="32"/>
-      <c r="H9" s="31"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="71"/>
+      <c r="H9" s="70"/>
     </row>
     <row r="10" ht="15" spans="1:8">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
     </row>
     <row r="11" ht="16.5" spans="1:8">
-      <c r="A11" s="51">
+      <c r="A11" s="90">
         <v>6</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="93">
         <v>6</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="93">
         <v>0</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="93">
         <f>COUNTIF(F13:F25,"x")</f>
         <v>0</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="56">
+      <c r="H11" s="95">
         <f>(D11+E11+F11)/A11</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:8">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="100" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" ht="31.5" spans="1:8">
-      <c r="A13" s="62">
+      <c r="A13" s="101">
         <v>1</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66" t="s">
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" ht="47.25" spans="1:8">
-      <c r="A14" s="62">
+      <c r="A14" s="101">
         <v>2</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66" t="s">
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" ht="31.5" spans="1:8">
-      <c r="A15" s="62">
+      <c r="A15" s="101">
         <v>3</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66" t="s">
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16" ht="47.25" spans="1:8">
-      <c r="A16" s="62">
+      <c r="A16" s="101">
         <v>4</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66" t="s">
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="17" ht="31.5" spans="1:8">
-      <c r="A17" s="62">
+      <c r="A17" s="101">
         <v>5</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66" t="s">
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="18" ht="47.25" spans="1:8">
-      <c r="A18" s="62">
+      <c r="A18" s="101">
         <v>6</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66" t="s">
+      <c r="E18" s="103"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105" t="s">
         <v>197</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="106" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3442,150 +4009,150 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:4">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="71"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110"/>
     </row>
     <row r="2" ht="16.5" spans="1:4">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="73">
+      <c r="B2" s="112">
         <v>5</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="112">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="112" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:4">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="114" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:4">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="112" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:4">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="112"/>
     </row>
     <row r="7" ht="16.5" spans="1:4">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="112"/>
     </row>
     <row r="8" ht="16.5" spans="1:4">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="112"/>
     </row>
     <row r="9" ht="16.5" spans="1:4">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="73"/>
+      <c r="D9" s="112"/>
     </row>
     <row r="10" ht="16.5" spans="1:4">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73" t="s">
+      <c r="B10" s="112"/>
+      <c r="C10" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="73"/>
+      <c r="D10" s="112"/>
     </row>
     <row r="11" ht="16.5" spans="1:4">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="112" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" ht="218" customHeight="1" spans="1:4">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3602,7 +4169,7 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -3618,296 +4185,296 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:8">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="45">
         <v>5</v>
       </c>
-      <c r="H1" s="7"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" ht="15.75" spans="1:8">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" ht="16.5" spans="1:8">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="61">
         <v>0</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="28">
+      <c r="E4" s="66"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="67">
         <v>45807</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" ht="15" spans="1:8">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" ht="16.5" spans="1:8">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
     </row>
     <row r="7" ht="15.75" spans="1:8">
-      <c r="A7" s="16"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
     </row>
     <row r="8" ht="16.5" spans="1:8">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="32"/>
-      <c r="H9" s="31"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="71"/>
+      <c r="H9" s="70"/>
     </row>
     <row r="10" ht="15" spans="1:8">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
     </row>
     <row r="11" ht="16.5" spans="1:8">
-      <c r="A11" s="51">
+      <c r="A11" s="90">
         <f>COUNTA(A13:A25)</f>
         <v>5</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="93">
         <v>5</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="93">
         <v>0</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="93">
         <f>COUNTIF(F13:F24,"x")</f>
         <v>0</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="56">
+      <c r="H11" s="95">
         <f>(D11+E11+F11)/A11</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:8">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="100" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" ht="20.25" spans="1:8">
-      <c r="A13" s="62">
+      <c r="A13" s="101">
         <v>1</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="102" t="s">
         <v>206</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="102" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66" t="s">
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" ht="20.25" spans="1:8">
-      <c r="A14" s="62">
+      <c r="A14" s="101">
         <v>2</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66" t="s">
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105" t="s">
         <v>210</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" ht="20.25" spans="1:8">
-      <c r="A15" s="62">
+      <c r="A15" s="101">
         <v>3</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66" t="s">
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16" ht="20.25" spans="1:8">
-      <c r="A16" s="62">
+      <c r="A16" s="101">
         <v>4</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="105" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66" t="s">
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="17" ht="20.25" spans="1:8">
-      <c r="A17" s="62">
+      <c r="A17" s="101">
         <v>5</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="105" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66" t="s">
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="106" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3919,6 +4486,213 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A6:B8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="44.75" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" ht="83" customHeight="1" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" ht="95" customHeight="1" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:3">
+      <c r="A8" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="13">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="16">
+        <v>5</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="19">
+        <v>4</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="22">
+        <v>1</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" ht="60" customHeight="1" spans="1:3">
+      <c r="A15" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="30">
+        <v>2</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" ht="54" customHeight="1" spans="1:3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" ht="61" customHeight="1" spans="1:3">
+      <c r="A17" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="30">
+        <v>1</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" ht="66" customHeight="1" spans="1:3">
+      <c r="A18" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="34">
+        <v>1</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" ht="64" customHeight="1" spans="1:3">
+      <c r="A19" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="36">
+        <v>1</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:1">
+      <c r="A21" s="38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" ht="93" customHeight="1" spans="1:1">
+      <c r="A22" s="39" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" ht="81" customHeight="1" spans="1:1">
+      <c r="A23" s="39" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3940,132 +4714,132 @@
   </cols>
   <sheetData>
     <row r="1" ht="56.45" customHeight="1" spans="1:6">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="125"/>
     </row>
     <row r="2" ht="56.45" customHeight="1" spans="1:6">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="127"/>
     </row>
     <row r="3" ht="64.8" customHeight="1" spans="1:5">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="90">
+      <c r="E3" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="64.8" customHeight="1" spans="1:5">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="64.8" customHeight="1" spans="1:5">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="64.8" customHeight="1" spans="1:5">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="90">
+      <c r="E6" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="97" customHeight="1" spans="1:5">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="64" customHeight="1" spans="1:5">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="90">
+      <c r="E8" s="129">
         <v>1</v>
       </c>
     </row>
@@ -4093,150 +4867,150 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:4">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="71"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110"/>
     </row>
     <row r="2" ht="16.5" spans="1:4">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="73">
+      <c r="B2" s="112">
         <v>1</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="112">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="112" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:4">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="114" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:4">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="112" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:4">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="112"/>
     </row>
     <row r="7" ht="16.5" spans="1:4">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="112"/>
     </row>
     <row r="8" ht="16.5" spans="1:4">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="112"/>
     </row>
     <row r="9" ht="16.5" spans="1:4">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="73"/>
+      <c r="D9" s="112"/>
     </row>
     <row r="10" ht="16.5" spans="1:4">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73" t="s">
+      <c r="B10" s="112"/>
+      <c r="C10" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="73"/>
+      <c r="D10" s="112"/>
     </row>
     <row r="11" ht="16.5" spans="1:4">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="112" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" ht="163" customHeight="1" spans="1:4">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4268,303 +5042,303 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:8">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="45">
         <v>1</v>
       </c>
-      <c r="H1" s="7"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" ht="15.75" spans="1:8">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" ht="16.5" spans="1:8">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="61">
         <v>0</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="28">
+      <c r="E4" s="66"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="67">
         <v>45807</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" ht="15" spans="1:8">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" ht="16.5" spans="1:8">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
     </row>
     <row r="7" ht="15.75" spans="1:8">
-      <c r="A7" s="16"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
     </row>
     <row r="8" ht="16.5" spans="1:8">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="32"/>
-      <c r="H9" s="31"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="71"/>
+      <c r="H9" s="70"/>
     </row>
     <row r="10" ht="15" spans="1:8">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
     </row>
     <row r="11" ht="16.5" spans="1:8">
-      <c r="A11" s="51">
+      <c r="A11" s="90">
         <f>COUNTA(A13:A25)</f>
         <v>5</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="93">
         <v>5</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="93">
         <v>0</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="93">
         <f>COUNTIF(F13:F24,"x")</f>
         <v>0</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="56">
+      <c r="H11" s="95">
         <f>(D11+E11+F11)/A11</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:8">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="100" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" ht="40.25" customHeight="1" spans="1:8">
-      <c r="A13" s="62">
+      <c r="A13" s="101">
         <v>1</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66" t="s">
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" ht="40.25" customHeight="1" spans="1:8">
-      <c r="A14" s="62">
+      <c r="A14" s="101">
         <v>2</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="105" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66" t="s">
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" ht="40.25" customHeight="1" spans="1:8">
-      <c r="A15" s="62">
+      <c r="A15" s="101">
         <v>3</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66" t="s">
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16" ht="40.25" customHeight="1" spans="1:8">
-      <c r="A16" s="62">
+      <c r="A16" s="101">
         <v>4</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66" t="s">
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="17" ht="40.25" customHeight="1" spans="1:8">
-      <c r="A17" s="62">
+      <c r="A17" s="101">
         <v>5</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66" t="s">
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="18" ht="40.25" customHeight="1"/>
     <row r="19" ht="40.25" customHeight="1"/>
     <row r="21" spans="9:9">
-      <c r="I21" s="82"/>
+      <c r="I21" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4598,150 +5372,150 @@
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:4">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="71"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110"/>
     </row>
     <row r="2" ht="16.5" spans="1:4">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="73">
+      <c r="B2" s="112">
         <v>2</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="112">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="112" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:4">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="114" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:4">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="112" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:4">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="112"/>
     </row>
     <row r="7" ht="16.5" spans="1:4">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="112"/>
     </row>
     <row r="8" ht="16.5" spans="1:4">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="112"/>
     </row>
     <row r="9" ht="16.5" spans="1:4">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="73"/>
+      <c r="D9" s="112"/>
     </row>
     <row r="10" ht="16.5" spans="1:4">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73" t="s">
+      <c r="B10" s="112"/>
+      <c r="C10" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="73"/>
+      <c r="D10" s="112"/>
     </row>
     <row r="11" ht="16.5" spans="1:4">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="112" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" ht="226" customHeight="1" spans="1:4">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4773,318 +5547,318 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:8">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="45">
         <v>2</v>
       </c>
-      <c r="H1" s="7"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" ht="15.75" spans="1:8">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" ht="15.75" spans="1:8">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="61">
         <v>0</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="81" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="28">
+      <c r="E4" s="66"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="67">
         <v>45807</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" ht="15" spans="1:8">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" ht="16.5" spans="1:8">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
     </row>
     <row r="7" ht="15.75" spans="1:8">
-      <c r="A7" s="16"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
     </row>
     <row r="8" ht="16.5" spans="1:8">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="32"/>
-      <c r="H9" s="31"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="71"/>
+      <c r="H9" s="70"/>
     </row>
     <row r="10" ht="15" spans="1:8">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
     </row>
     <row r="11" ht="16.5" spans="1:8">
-      <c r="A11" s="51">
+      <c r="A11" s="90">
         <f>COUNTA(A13:A26)</f>
         <v>6</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="93">
         <v>6</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="93">
         <v>0</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="93">
         <f>COUNTIF(F13:F25,"x")</f>
         <v>0</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="56">
+      <c r="H11" s="95">
         <f>(D11+E11+F11)/A11</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:8">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="100" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" ht="20.25" spans="1:8">
-      <c r="A13" s="62">
+      <c r="A13" s="101">
         <v>1</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66" t="s">
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" ht="20.25" spans="1:8">
-      <c r="A14" s="62">
+      <c r="A14" s="101">
         <v>2</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66" t="s">
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" ht="20.25" spans="1:8">
-      <c r="A15" s="62">
+      <c r="A15" s="101">
         <v>3</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66" t="s">
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16" ht="20.25" spans="1:8">
-      <c r="A16" s="62">
+      <c r="A16" s="101">
         <v>4</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66" t="s">
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="17" ht="20.25" spans="1:8">
-      <c r="A17" s="62">
+      <c r="A17" s="101">
         <v>5</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="105" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66" t="s">
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="18" ht="20.25" spans="1:8">
-      <c r="A18" s="62">
+      <c r="A18" s="101">
         <v>6</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66" t="s">
+      <c r="E18" s="103"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="106" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5120,150 +5894,150 @@
   </cols>
   <sheetData>
     <row r="1" ht="38" customHeight="1" spans="1:4">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="71"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110"/>
     </row>
     <row r="2" ht="16.5" spans="1:4">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="73">
+      <c r="B2" s="112">
         <v>3</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="112">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="112" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" ht="32.25" spans="1:4">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="114" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:4">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="112" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:4">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="112"/>
     </row>
     <row r="7" ht="16.5" spans="1:4">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="112"/>
     </row>
     <row r="8" ht="16.5" spans="1:4">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="112"/>
     </row>
     <row r="9" ht="16.5" spans="1:4">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="73"/>
+      <c r="D9" s="112"/>
     </row>
     <row r="10" ht="16.5" spans="1:4">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73" t="s">
+      <c r="B10" s="112"/>
+      <c r="C10" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="73"/>
+      <c r="D10" s="112"/>
     </row>
     <row r="11" ht="16.5" spans="1:4">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="112" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" ht="178" customHeight="1" spans="1:4">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5297,296 +6071,296 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:8">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="45">
         <v>3</v>
       </c>
-      <c r="H1" s="7"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" ht="15.75" spans="1:8">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" ht="15.75" spans="1:8">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="61">
         <v>0</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="81" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="28">
+      <c r="E4" s="66"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="67">
         <v>45807</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" ht="15" spans="1:8">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" ht="16.5" spans="1:8">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
     </row>
     <row r="7" ht="15.75" spans="1:8">
-      <c r="A7" s="16"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
     </row>
     <row r="8" ht="16.5" spans="1:8">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="32"/>
-      <c r="H9" s="31"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="71"/>
+      <c r="H9" s="70"/>
     </row>
     <row r="10" ht="15" spans="1:8">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
     </row>
     <row r="11" ht="16.5" spans="1:8">
-      <c r="A11" s="51">
+      <c r="A11" s="90">
         <f>COUNTA(A13:A25)</f>
         <v>5</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="93">
         <v>5</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="93">
         <v>0</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="93">
         <f>COUNTIF(F13:F24,"x")</f>
         <v>0</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="56">
+      <c r="H11" s="95">
         <f>(D11+E11+F11)/A11</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:8">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="100" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" ht="20.25" spans="1:8">
-      <c r="A13" s="62">
+      <c r="A13" s="101">
         <v>1</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="105" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66" t="s">
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" ht="20.25" spans="1:8">
-      <c r="A14" s="62">
+      <c r="A14" s="101">
         <v>2</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="105" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66" t="s">
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" ht="20.25" spans="1:8">
-      <c r="A15" s="62">
+      <c r="A15" s="101">
         <v>3</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66" t="s">
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16" ht="20.25" spans="1:8">
-      <c r="A16" s="62">
+      <c r="A16" s="101">
         <v>4</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66" t="s">
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="106" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="17" ht="20.25" spans="1:8">
-      <c r="A17" s="62">
+      <c r="A17" s="101">
         <v>5</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66" t="s">
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="106" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5622,150 +6396,150 @@
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:4">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="108" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="71"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110"/>
     </row>
     <row r="2" ht="16.5" spans="1:4">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="73">
+      <c r="B2" s="112">
         <v>4</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="112">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="112" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:4">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="114" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:4">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="112" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:4">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="112"/>
     </row>
     <row r="7" ht="16.5" spans="1:4">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="112"/>
     </row>
     <row r="8" ht="16.5" spans="1:4">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="112"/>
     </row>
     <row r="9" ht="16.5" spans="1:4">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="73"/>
+      <c r="D9" s="112"/>
     </row>
     <row r="10" ht="16.5" spans="1:4">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73" t="s">
+      <c r="B10" s="112"/>
+      <c r="C10" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="73"/>
+      <c r="D10" s="112"/>
     </row>
     <row r="11" ht="16.5" spans="1:4">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="112" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="154" customHeight="1" spans="1:4">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="2">
